--- a/ERMODEL.xlsx
+++ b/ERMODEL.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\g6424\Downloads\YY_new-master\YY_new-master\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\python\factory\test\YY_new\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2B7EB8A-0DF0-49A8-8857-02148E8CF069}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12255"/>
+    <workbookView xWindow="696" yWindow="0" windowWidth="14016" windowHeight="12360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ERMODEL" sheetId="1" r:id="rId1"/>
@@ -20,18 +21,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="109">
   <si>
     <t>table</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -50,10 +45,6 @@
   </si>
   <si>
     <t>line的顯示名稱</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>right</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -88,10 +79,6 @@
   </si>
   <si>
     <t>photo_id</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>iamge</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -485,7 +472,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -593,7 +580,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -618,11 +605,17 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -940,546 +933,551 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E40"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="5" width="19.25" customWidth="1"/>
+    <col min="1" max="1" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="5" width="19.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="10" t="s">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="E1" s="8" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="10" t="s">
+      <c r="B2" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>57</v>
-      </c>
-      <c r="E1" s="10" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="B2" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>59</v>
       </c>
       <c r="E2" s="7" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="9"/>
-      <c r="B3" s="9"/>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" s="10"/>
+      <c r="B3" s="12"/>
       <c r="C3" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="9"/>
-      <c r="B4" s="9"/>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" s="10"/>
+      <c r="B4" s="12"/>
       <c r="C4" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="E4" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="3" t="s">
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" s="10"/>
+      <c r="B5" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6" s="10"/>
+      <c r="B6" s="11"/>
+      <c r="C6" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7" s="10"/>
+      <c r="B7" s="12"/>
+      <c r="C7" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="B8" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9" s="10"/>
+      <c r="B9" s="11"/>
+      <c r="C9" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A10" s="10"/>
+      <c r="B10" s="11"/>
+      <c r="C10" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A11" s="10"/>
+      <c r="B11" s="11"/>
+      <c r="C11" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A12" s="10"/>
+      <c r="B12" s="11"/>
+      <c r="C12" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="B13" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A14" s="10"/>
+      <c r="B14" s="11"/>
+      <c r="C14" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="E14" s="6" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A15" s="10"/>
+      <c r="B15" s="11"/>
+      <c r="C15" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D15" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="E4" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="9"/>
-      <c r="B5" s="8" t="s">
+      <c r="E15" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A16" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="B16" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="D16" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A17" s="10"/>
+      <c r="B17" s="11"/>
+      <c r="C17" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="E17" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A18" s="10"/>
+      <c r="B18" s="11"/>
+      <c r="C18" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A19" s="10"/>
+      <c r="B19" s="11"/>
+      <c r="C19" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A20" s="10"/>
+      <c r="B20" s="11"/>
+      <c r="C20" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A21" s="10"/>
+      <c r="B21" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="E21" s="7" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A22" s="10"/>
+      <c r="B22" s="11"/>
+      <c r="C22" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="D22" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="E22" s="4" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A23" s="10"/>
+      <c r="B23" s="12"/>
+      <c r="C23" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="D5" s="2" t="s">
+      <c r="D23" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="E5" s="7" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="9"/>
-      <c r="B6" s="8"/>
-      <c r="C6" s="1" t="s">
+      <c r="E23" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A24" s="10"/>
+      <c r="B24" s="12"/>
+      <c r="C24" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="D24" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="E24" s="6" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A25" s="10"/>
+      <c r="B25" s="12"/>
+      <c r="C25" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A26" s="10"/>
+      <c r="B26" s="12"/>
+      <c r="C26" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A27" s="10"/>
+      <c r="B27" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A28" s="10"/>
+      <c r="B28" s="10"/>
+      <c r="C28" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="D28" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="E28" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A29" s="10"/>
+      <c r="B29" s="10"/>
+      <c r="C29" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="D29" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="E29" s="6" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A30" s="10"/>
+      <c r="B30" s="10"/>
+      <c r="C30" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A31" s="10"/>
+      <c r="B31" s="10"/>
+      <c r="C31" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A32" s="10"/>
+      <c r="B32" s="10"/>
+      <c r="C32" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A33" s="10"/>
+      <c r="B33" s="10"/>
+      <c r="C33" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D33" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="D6" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="9"/>
-      <c r="B7" s="9"/>
-      <c r="C7" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="D7" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="E7" s="6" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="B8" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D8" s="2" t="s">
+      <c r="E33" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A34" s="10"/>
+      <c r="B34" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="E34" s="7" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A35" s="10"/>
+      <c r="B35" s="10"/>
+      <c r="C35" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="D35" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="E8" s="7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="9"/>
-      <c r="B9" s="8"/>
-      <c r="C9" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="9"/>
-      <c r="B10" s="8"/>
-      <c r="C10" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D10" s="1" t="s">
+      <c r="E35" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A36" s="10"/>
+      <c r="B36" s="10"/>
+      <c r="C36" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="D36" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="E36" s="3" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A37" s="10"/>
+      <c r="B37" s="10"/>
+      <c r="C37" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D37" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="E10" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="9"/>
-      <c r="B11" s="8"/>
-      <c r="C11" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="9"/>
-      <c r="B12" s="8"/>
-      <c r="C12" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="B13" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="E13" s="7" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="9"/>
-      <c r="B14" s="8"/>
-      <c r="C14" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="D14" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="E14" s="6" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="9"/>
-      <c r="B15" s="8"/>
-      <c r="C15" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="9" t="s">
-        <v>86</v>
-      </c>
-      <c r="B16" s="8" t="s">
-        <v>71</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="D16" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="E16" s="7" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="9"/>
-      <c r="B17" s="8"/>
-      <c r="C17" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="D17" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="E17" s="4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="9"/>
-      <c r="B18" s="8"/>
-      <c r="C18" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" s="9"/>
-      <c r="B19" s="8"/>
-      <c r="C19" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="E19" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" s="9"/>
-      <c r="B20" s="8"/>
-      <c r="C20" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="E20" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" s="9"/>
-      <c r="B21" s="8" t="s">
-        <v>79</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" s="9"/>
-      <c r="B22" s="8"/>
-      <c r="C22" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="D22" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="E22" s="4" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23" s="9"/>
-      <c r="B23" s="9"/>
-      <c r="C23" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D23" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="E23" s="3" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24" s="9"/>
-      <c r="B24" s="9"/>
-      <c r="C24" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="D24" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="E24" s="6" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25" s="9"/>
-      <c r="B25" s="9"/>
-      <c r="C25" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="D25" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="E25" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A26" s="9"/>
-      <c r="B26" s="9"/>
-      <c r="C26" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="D26" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="E26" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A27" s="9"/>
-      <c r="B27" s="8" t="s">
-        <v>78</v>
-      </c>
-      <c r="C27" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="D27" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="E27" s="7" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A28" s="9"/>
-      <c r="B28" s="9"/>
-      <c r="C28" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="D28" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="E28" s="3" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A29" s="9"/>
-      <c r="B29" s="9"/>
-      <c r="C29" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="D29" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="E29" s="6" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A30" s="9"/>
-      <c r="B30" s="9"/>
-      <c r="C30" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="D30" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="E30" s="1" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A31" s="9"/>
-      <c r="B31" s="9"/>
-      <c r="C31" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="D31" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="E31" s="1" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A32" s="9"/>
-      <c r="B32" s="9"/>
-      <c r="C32" s="1" t="s">
+      <c r="E37" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A38" s="10"/>
+      <c r="B38" s="10"/>
+      <c r="C38" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="E38" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="D32" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="E32" s="1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A33" s="9"/>
-      <c r="B33" s="9"/>
-      <c r="C33" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="D33" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="E33" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A34" s="9"/>
-      <c r="B34" s="8" t="s">
-        <v>70</v>
-      </c>
-      <c r="C34" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="D34" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="E34" s="7" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A35" s="9"/>
-      <c r="B35" s="9"/>
-      <c r="C35" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="D35" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="E35" s="3" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A36" s="9"/>
-      <c r="B36" s="9"/>
-      <c r="C36" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="D36" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="E36" s="3" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A37" s="9"/>
-      <c r="B37" s="9"/>
-      <c r="C37" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="D37" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="E37" s="1" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A38" s="9"/>
-      <c r="B38" s="9"/>
-      <c r="C38" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="D38" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="E38" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
       <c r="E40" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="B2:B4"/>
+    <mergeCell ref="B5:B7"/>
+    <mergeCell ref="A2:A7"/>
+    <mergeCell ref="B8:B12"/>
+    <mergeCell ref="A8:A12"/>
     <mergeCell ref="B21:B26"/>
     <mergeCell ref="B27:B33"/>
     <mergeCell ref="B34:B38"/>
@@ -1487,11 +1485,6 @@
     <mergeCell ref="B13:B15"/>
     <mergeCell ref="A16:A38"/>
     <mergeCell ref="B16:B20"/>
-    <mergeCell ref="B2:B4"/>
-    <mergeCell ref="B5:B7"/>
-    <mergeCell ref="A2:A7"/>
-    <mergeCell ref="B8:B12"/>
-    <mergeCell ref="A8:A12"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1500,111 +1493,111 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="20.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>86</v>
+      </c>
+      <c r="B2" t="s">
+        <v>94</v>
+      </c>
+      <c r="C2" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B3" t="s">
+        <v>95</v>
+      </c>
+      <c r="C3" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B4" t="s">
+        <v>96</v>
+      </c>
+      <c r="C4" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B5" t="s">
+        <v>93</v>
+      </c>
+      <c r="C5" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B6" t="s">
+        <v>97</v>
+      </c>
+      <c r="C6" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="B7" t="s">
+        <v>98</v>
+      </c>
+      <c r="C7" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
         <v>88</v>
       </c>
-      <c r="B2" t="s">
-        <v>96</v>
-      </c>
-      <c r="C2" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B3" t="s">
-        <v>97</v>
-      </c>
-      <c r="C3" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B4" t="s">
-        <v>98</v>
-      </c>
-      <c r="C4" t="s">
+      <c r="B8" t="s">
+        <v>89</v>
+      </c>
+      <c r="C8" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B9" t="s">
+        <v>90</v>
+      </c>
+      <c r="C9" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B10" t="s">
+        <v>91</v>
+      </c>
+      <c r="C10" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B11" t="s">
+        <v>92</v>
+      </c>
+      <c r="C11" t="s">
         <v>108</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B5" t="s">
-        <v>95</v>
-      </c>
-      <c r="C5" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B6" t="s">
-        <v>99</v>
-      </c>
-      <c r="C6" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>89</v>
-      </c>
-      <c r="B7" t="s">
-        <v>100</v>
-      </c>
-      <c r="C7" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>90</v>
-      </c>
-      <c r="B8" t="s">
-        <v>91</v>
-      </c>
-      <c r="C8" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B9" t="s">
-        <v>92</v>
-      </c>
-      <c r="C9" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B10" t="s">
-        <v>93</v>
-      </c>
-      <c r="C10" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B11" t="s">
-        <v>94</v>
-      </c>
-      <c r="C11" t="s">
-        <v>110</v>
       </c>
     </row>
   </sheetData>

--- a/ERMODEL.xlsx
+++ b/ERMODEL.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\python\factory\test\YY_new\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2B7EB8A-0DF0-49A8-8857-02148E8CF069}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BFA9F1E-39E8-45DE-9D13-69086B68B1BF}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="696" yWindow="0" windowWidth="14016" windowHeight="12360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ERMODEL" sheetId="1" r:id="rId1"/>
-    <sheet name="CLASS" sheetId="2" r:id="rId2"/>
+    <sheet name="工作表1" sheetId="3" r:id="rId2"/>
+    <sheet name="CLASS" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="145">
   <si>
     <t>table</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -466,6 +467,150 @@
   </si>
   <si>
     <t>identify</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>用戶資料</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>lineID</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>用戶名稱</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>用戶權限</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>品種資訊</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>品種編號</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>品種名稱</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>參數</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>培育日長</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>辨識結果</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>批號</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>海棉塊數</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>發芽塊數</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>未發芽塊數</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>發芽比例</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>人工判別</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>海棉塊編號</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>發芽判斷</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>判斷人員</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>line帳號資訊</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>line顯示名稱</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0:最高主管 1:一般主管 2:共用機台</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>如：3G1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>如：芝麻葉</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>系統用參數</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>預設六天</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>自行輸入</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>預設4片x12x8=384</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>判斷有發芽的塊數</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>判斷未發芽的塊數</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>發芽塊數/海棉塊數</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>自行輸入日期</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>系統紀錄操作日期</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>每個海棉塊的獨立編號</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>人工判斷結果</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>負責人員的lineID</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -473,7 +618,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -536,6 +681,13 @@
       <name val="Cambria"/>
       <family val="1"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="微軟正黑體"/>
+      <family val="2"/>
+      <charset val="136"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -551,7 +703,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -574,13 +726,151 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -608,17 +898,50 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -936,8 +1259,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E40"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C38" sqref="C38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
@@ -964,10 +1287,10 @@
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" s="10" t="s">
+      <c r="A2" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="11" t="s">
+      <c r="B2" s="9" t="s">
         <v>10</v>
       </c>
       <c r="C2" s="2" t="s">
@@ -981,8 +1304,8 @@
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" s="10"/>
-      <c r="B3" s="12"/>
+      <c r="A3" s="11"/>
+      <c r="B3" s="10"/>
       <c r="C3" s="1" t="s">
         <v>65</v>
       </c>
@@ -994,8 +1317,8 @@
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" s="10"/>
-      <c r="B4" s="12"/>
+      <c r="A4" s="11"/>
+      <c r="B4" s="10"/>
       <c r="C4" s="3" t="s">
         <v>49</v>
       </c>
@@ -1007,8 +1330,8 @@
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" s="10"/>
-      <c r="B5" s="11" t="s">
+      <c r="A5" s="11"/>
+      <c r="B5" s="9" t="s">
         <v>11</v>
       </c>
       <c r="C5" s="2" t="s">
@@ -1022,8 +1345,8 @@
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6" s="10"/>
-      <c r="B6" s="11"/>
+      <c r="A6" s="11"/>
+      <c r="B6" s="9"/>
       <c r="C6" s="1" t="s">
         <v>64</v>
       </c>
@@ -1035,8 +1358,8 @@
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A7" s="10"/>
-      <c r="B7" s="12"/>
+      <c r="A7" s="11"/>
+      <c r="B7" s="10"/>
       <c r="C7" s="6" t="s">
         <v>51</v>
       </c>
@@ -1048,10 +1371,10 @@
       </c>
     </row>
     <row r="8" spans="1:5" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="10" t="s">
+      <c r="A8" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="B8" s="11" t="s">
+      <c r="B8" s="9" t="s">
         <v>24</v>
       </c>
       <c r="C8" s="2" t="s">
@@ -1065,8 +1388,8 @@
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A9" s="10"/>
-      <c r="B9" s="11"/>
+      <c r="A9" s="11"/>
+      <c r="B9" s="9"/>
       <c r="C9" s="1" t="s">
         <v>18</v>
       </c>
@@ -1078,8 +1401,8 @@
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A10" s="10"/>
-      <c r="B10" s="11"/>
+      <c r="A10" s="11"/>
+      <c r="B10" s="9"/>
       <c r="C10" s="1" t="s">
         <v>20</v>
       </c>
@@ -1091,8 +1414,8 @@
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A11" s="10"/>
-      <c r="B11" s="11"/>
+      <c r="A11" s="11"/>
+      <c r="B11" s="9"/>
       <c r="C11" s="1" t="s">
         <v>21</v>
       </c>
@@ -1104,8 +1427,8 @@
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A12" s="10"/>
-      <c r="B12" s="11"/>
+      <c r="A12" s="11"/>
+      <c r="B12" s="9"/>
       <c r="C12" s="1" t="s">
         <v>26</v>
       </c>
@@ -1117,10 +1440,10 @@
       </c>
     </row>
     <row r="13" spans="1:5" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="10" t="s">
+      <c r="A13" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="B13" s="11" t="s">
+      <c r="B13" s="9" t="s">
         <v>14</v>
       </c>
       <c r="C13" s="2" t="s">
@@ -1134,8 +1457,8 @@
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A14" s="10"/>
-      <c r="B14" s="11"/>
+      <c r="A14" s="11"/>
+      <c r="B14" s="9"/>
       <c r="C14" s="6" t="s">
         <v>41</v>
       </c>
@@ -1147,8 +1470,8 @@
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A15" s="10"/>
-      <c r="B15" s="11"/>
+      <c r="A15" s="11"/>
+      <c r="B15" s="9"/>
       <c r="C15" s="1" t="s">
         <v>53</v>
       </c>
@@ -1160,10 +1483,10 @@
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A16" s="10" t="s">
+      <c r="A16" s="11" t="s">
         <v>84</v>
       </c>
-      <c r="B16" s="11" t="s">
+      <c r="B16" s="9" t="s">
         <v>69</v>
       </c>
       <c r="C16" s="2" t="s">
@@ -1177,8 +1500,8 @@
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A17" s="10"/>
-      <c r="B17" s="11"/>
+      <c r="A17" s="11"/>
+      <c r="B17" s="9"/>
       <c r="C17" s="4" t="s">
         <v>16</v>
       </c>
@@ -1190,8 +1513,8 @@
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A18" s="10"/>
-      <c r="B18" s="11"/>
+      <c r="A18" s="11"/>
+      <c r="B18" s="9"/>
       <c r="C18" s="1" t="s">
         <v>74</v>
       </c>
@@ -1203,8 +1526,8 @@
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A19" s="10"/>
-      <c r="B19" s="11"/>
+      <c r="A19" s="11"/>
+      <c r="B19" s="9"/>
       <c r="C19" s="1" t="s">
         <v>30</v>
       </c>
@@ -1216,8 +1539,8 @@
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A20" s="10"/>
-      <c r="B20" s="11"/>
+      <c r="A20" s="11"/>
+      <c r="B20" s="9"/>
       <c r="C20" s="1" t="s">
         <v>32</v>
       </c>
@@ -1229,8 +1552,8 @@
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A21" s="10"/>
-      <c r="B21" s="11" t="s">
+      <c r="A21" s="11"/>
+      <c r="B21" s="9" t="s">
         <v>77</v>
       </c>
       <c r="C21" s="2" t="s">
@@ -1244,8 +1567,8 @@
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A22" s="10"/>
-      <c r="B22" s="11"/>
+      <c r="A22" s="11"/>
+      <c r="B22" s="9"/>
       <c r="C22" s="4" t="s">
         <v>71</v>
       </c>
@@ -1257,8 +1580,8 @@
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A23" s="10"/>
-      <c r="B23" s="12"/>
+      <c r="A23" s="11"/>
+      <c r="B23" s="10"/>
       <c r="C23" s="4" t="s">
         <v>12</v>
       </c>
@@ -1270,8 +1593,8 @@
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A24" s="10"/>
-      <c r="B24" s="12"/>
+      <c r="A24" s="11"/>
+      <c r="B24" s="10"/>
       <c r="C24" s="6" t="s">
         <v>41</v>
       </c>
@@ -1283,8 +1606,8 @@
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A25" s="10"/>
-      <c r="B25" s="12"/>
+      <c r="A25" s="11"/>
+      <c r="B25" s="10"/>
       <c r="C25" s="1" t="s">
         <v>34</v>
       </c>
@@ -1296,8 +1619,8 @@
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A26" s="10"/>
-      <c r="B26" s="12"/>
+      <c r="A26" s="11"/>
+      <c r="B26" s="10"/>
       <c r="C26" s="1" t="s">
         <v>36</v>
       </c>
@@ -1309,8 +1632,8 @@
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A27" s="10"/>
-      <c r="B27" s="9" t="s">
+      <c r="A27" s="11"/>
+      <c r="B27" s="12" t="s">
         <v>76</v>
       </c>
       <c r="C27" s="2" t="s">
@@ -1324,8 +1647,8 @@
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A28" s="10"/>
-      <c r="B28" s="10"/>
+      <c r="A28" s="11"/>
+      <c r="B28" s="11"/>
       <c r="C28" s="4" t="s">
         <v>27</v>
       </c>
@@ -1337,8 +1660,8 @@
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A29" s="10"/>
-      <c r="B29" s="10"/>
+      <c r="A29" s="11"/>
+      <c r="B29" s="11"/>
       <c r="C29" s="6" t="s">
         <v>41</v>
       </c>
@@ -1350,8 +1673,8 @@
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A30" s="10"/>
-      <c r="B30" s="10"/>
+      <c r="A30" s="11"/>
+      <c r="B30" s="11"/>
       <c r="C30" s="1" t="s">
         <v>80</v>
       </c>
@@ -1363,8 +1686,8 @@
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A31" s="10"/>
-      <c r="B31" s="10"/>
+      <c r="A31" s="11"/>
+      <c r="B31" s="11"/>
       <c r="C31" s="1" t="s">
         <v>81</v>
       </c>
@@ -1376,8 +1699,8 @@
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A32" s="10"/>
-      <c r="B32" s="10"/>
+      <c r="A32" s="11"/>
+      <c r="B32" s="11"/>
       <c r="C32" s="1" t="s">
         <v>43</v>
       </c>
@@ -1389,8 +1712,8 @@
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A33" s="10"/>
-      <c r="B33" s="10"/>
+      <c r="A33" s="11"/>
+      <c r="B33" s="11"/>
       <c r="C33" s="1" t="s">
         <v>46</v>
       </c>
@@ -1402,8 +1725,8 @@
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A34" s="10"/>
-      <c r="B34" s="9" t="s">
+      <c r="A34" s="11"/>
+      <c r="B34" s="12" t="s">
         <v>68</v>
       </c>
       <c r="C34" s="2" t="s">
@@ -1417,8 +1740,8 @@
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A35" s="10"/>
-      <c r="B35" s="10"/>
+      <c r="A35" s="11"/>
+      <c r="B35" s="11"/>
       <c r="C35" s="4" t="s">
         <v>38</v>
       </c>
@@ -1430,8 +1753,8 @@
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A36" s="10"/>
-      <c r="B36" s="10"/>
+      <c r="A36" s="11"/>
+      <c r="B36" s="11"/>
       <c r="C36" s="4" t="s">
         <v>78</v>
       </c>
@@ -1443,8 +1766,8 @@
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A37" s="10"/>
-      <c r="B37" s="10"/>
+      <c r="A37" s="11"/>
+      <c r="B37" s="11"/>
       <c r="C37" s="1" t="s">
         <v>30</v>
       </c>
@@ -1456,8 +1779,8 @@
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A38" s="10"/>
-      <c r="B38" s="10"/>
+      <c r="A38" s="11"/>
+      <c r="B38" s="11"/>
       <c r="C38" s="1" t="s">
         <v>46</v>
       </c>
@@ -1473,11 +1796,6 @@
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="B2:B4"/>
-    <mergeCell ref="B5:B7"/>
-    <mergeCell ref="A2:A7"/>
-    <mergeCell ref="B8:B12"/>
-    <mergeCell ref="A8:A12"/>
     <mergeCell ref="B21:B26"/>
     <mergeCell ref="B27:B33"/>
     <mergeCell ref="B34:B38"/>
@@ -1485,6 +1803,11 @@
     <mergeCell ref="B13:B15"/>
     <mergeCell ref="A16:A38"/>
     <mergeCell ref="B16:B20"/>
+    <mergeCell ref="B2:B4"/>
+    <mergeCell ref="B5:B7"/>
+    <mergeCell ref="A2:A7"/>
+    <mergeCell ref="B8:B12"/>
+    <mergeCell ref="A8:A12"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1493,6 +1816,204 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F70C1D52-921C-4EBA-BAA0-F66431BB7E54}">
+  <dimension ref="A1:C18"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="2" width="13.109375" customWidth="1"/>
+    <col min="3" max="3" width="36.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="12.88671875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" s="13" t="s">
+        <v>109</v>
+      </c>
+      <c r="B1" s="14" t="s">
+        <v>110</v>
+      </c>
+      <c r="C1" s="15" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" s="16"/>
+      <c r="B2" s="17" t="s">
+        <v>111</v>
+      </c>
+      <c r="C2" s="18" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" s="19"/>
+      <c r="B3" s="17" t="s">
+        <v>112</v>
+      </c>
+      <c r="C3" s="18" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" s="20" t="s">
+        <v>113</v>
+      </c>
+      <c r="B4" s="17" t="s">
+        <v>114</v>
+      </c>
+      <c r="C4" s="18" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" s="16"/>
+      <c r="B5" s="17" t="s">
+        <v>115</v>
+      </c>
+      <c r="C5" s="18" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" s="16"/>
+      <c r="B6" s="17" t="s">
+        <v>116</v>
+      </c>
+      <c r="C6" s="18" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" s="19"/>
+      <c r="B7" s="17" t="s">
+        <v>117</v>
+      </c>
+      <c r="C7" s="18" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8" s="20" t="s">
+        <v>118</v>
+      </c>
+      <c r="B8" s="17" t="s">
+        <v>114</v>
+      </c>
+      <c r="C8" s="18" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9" s="16"/>
+      <c r="B9" s="17" t="s">
+        <v>119</v>
+      </c>
+      <c r="C9" s="18" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10" s="16"/>
+      <c r="B10" s="17" t="s">
+        <v>120</v>
+      </c>
+      <c r="C10" s="18" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11" s="16"/>
+      <c r="B11" s="17" t="s">
+        <v>121</v>
+      </c>
+      <c r="C11" s="18" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A12" s="16"/>
+      <c r="B12" s="17" t="s">
+        <v>122</v>
+      </c>
+      <c r="C12" s="18" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A13" s="16"/>
+      <c r="B13" s="17" t="s">
+        <v>123</v>
+      </c>
+      <c r="C13" s="18" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A14" s="16"/>
+      <c r="B14" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="C14" s="18" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A15" s="19"/>
+      <c r="B15" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="C15" s="18" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A16" s="20" t="s">
+        <v>124</v>
+      </c>
+      <c r="B16" s="17" t="s">
+        <v>125</v>
+      </c>
+      <c r="C16" s="18" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A17" s="16"/>
+      <c r="B17" s="17" t="s">
+        <v>126</v>
+      </c>
+      <c r="C17" s="18" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="21"/>
+      <c r="B18" s="22" t="s">
+        <v>127</v>
+      </c>
+      <c r="C18" s="23" t="s">
+        <v>144</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="A1:A3"/>
+    <mergeCell ref="A4:A7"/>
+    <mergeCell ref="A8:A15"/>
+    <mergeCell ref="A16:A18"/>
+  </mergeCells>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C11"/>
   <sheetViews>
